--- a/Assets/Resources/Excel/RoleData.xlsx
+++ b/Assets/Resources/Excel/RoleData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>RoleId</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>img_character1_death_Img</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>role2</t>
@@ -1087,7 +1090,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1177,22 +1180,25 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1200,16 +1206,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1217,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1234,13 +1240,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1248,16 +1257,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1265,16 +1274,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1282,16 +1291,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1299,13 +1308,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1313,16 +1325,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1330,16 +1342,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1347,30 +1359,33 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/RoleData.xlsx
+++ b/Assets/Resources/Excel/RoleData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>RoleId</t>
   </si>
@@ -37,9 +37,15 @@
     <t>RoleName</t>
   </si>
   <si>
+    <t>CnName</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
+    <t>CnState</t>
+  </si>
+  <si>
     <t>NormalSprite</t>
   </si>
   <si>
@@ -49,9 +55,15 @@
     <t>role1</t>
   </si>
   <si>
+    <t>卡莲·佩尔西娅</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>正常</t>
+  </si>
+  <si>
     <t>img_character1_Img</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>weak</t>
   </si>
   <si>
+    <t>虚弱</t>
+  </si>
+  <si>
     <t>img_character1_Weak_Img</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>恐慌</t>
+  </si>
+  <si>
     <t>img_character1_panic_Img</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t>death</t>
   </si>
   <si>
+    <t>死亡</t>
+  </si>
+  <si>
     <t>img_character1_death_Img</t>
   </si>
   <si>
@@ -88,6 +109,9 @@
     <t>role2</t>
   </si>
   <si>
+    <t>芙里尔·诺埃玛</t>
+  </si>
+  <si>
     <t>img_character2_Img</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>role3</t>
   </si>
   <si>
+    <t>安娜·梅洛珀尔</t>
+  </si>
+  <si>
     <t>img_character3_Img</t>
   </si>
   <si>
@@ -134,6 +161,9 @@
   </si>
   <si>
     <t>role4</t>
+  </si>
+  <si>
+    <t>特蕾莎·慕勒</t>
   </si>
   <si>
     <t>img_character4_Img</t>
@@ -167,13 +197,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -640,139 +676,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,21 +1124,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="5" width="17.537037037037" customWidth="1"/>
-    <col min="6" max="6" width="14.712962962963" customWidth="1"/>
+    <col min="1" max="7" width="17.537037037037" customWidth="1"/>
+    <col min="8" max="8" width="14.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,277 +1154,379 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
